--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,38 +496,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OA_TestSuite_13_coords.json</t>
+          <t>RLC_TestSuite_15_coords.json</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.151954920664393</v>
+        <v>0.6683718037592058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07447533921864798</v>
+        <v>0.03288079560865044</v>
       </c>
       <c r="E2" t="n">
-        <v>285.7721253365041</v>
+        <v>246.6090285508171</v>
       </c>
       <c r="F2" t="n">
-        <v>33.50970374751591</v>
+        <v>104.3507244353449</v>
       </c>
       <c r="G2" t="n">
-        <v>6.259875685152799</v>
+        <v>6.934318167201073</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7037123211248149</v>
+        <v>1.18310657981665</v>
       </c>
       <c r="I2" t="n">
-        <v>41.59960460048184</v>
+        <v>98.32916168066278</v>
       </c>
       <c r="J2" t="n">
-        <v>3.055439025792087</v>
+        <v>8.485788589154039</v>
       </c>
       <c r="K2" t="n">
-        <v>3483.357029947485</v>
+        <v>1974.6271835113</v>
       </c>
       <c r="L2" t="n">
-        <v>1283.370623918886</v>
+        <v>447.854291077642</v>
       </c>
     </row>
     <row r="3">
@@ -536,38 +536,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OA_TestSuite_6_coords.json</t>
+          <t>RLC_TestSuite_5_coords.json</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.058179625822955</v>
+        <v>0.3931285850552266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05655371381257339</v>
+        <v>0.03933038252520592</v>
       </c>
       <c r="E3" t="n">
-        <v>202.333220584308</v>
+        <v>283.665561285869</v>
       </c>
       <c r="F3" t="n">
-        <v>33.28050855202204</v>
+        <v>79.89337494428813</v>
       </c>
       <c r="G3" t="n">
-        <v>11.88354621529023</v>
+        <v>3.962233930035661</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5039052913790618</v>
+        <v>0.9068341014186596</v>
       </c>
       <c r="I3" t="n">
-        <v>51.49291611692187</v>
+        <v>53.1280445697862</v>
       </c>
       <c r="J3" t="n">
-        <v>1.073814800859115</v>
+        <v>7.584197045143473</v>
       </c>
       <c r="K3" t="n">
-        <v>2929.736760099413</v>
+        <v>1814.024412895181</v>
       </c>
       <c r="L3" t="n">
-        <v>1138.026662638838</v>
+        <v>541.8071399581345</v>
       </c>
     </row>
     <row r="4">
@@ -576,38 +576,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OA_TestSuite_3_coords.json</t>
+          <t>RLC_TestSuite_6_coords.json</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7457428289387039</v>
+        <v>0.7301567056761517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04371342672473448</v>
+        <v>0.03796968373175965</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7663034958019</v>
+        <v>254.7724547092789</v>
       </c>
       <c r="F4" t="n">
-        <v>44.10829950570346</v>
+        <v>101.5862304253018</v>
       </c>
       <c r="G4" t="n">
-        <v>2.903083221822294</v>
+        <v>8.480522323243946</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3023948671601577</v>
+        <v>1.094424690773556</v>
       </c>
       <c r="I4" t="n">
-        <v>26.31625734757077</v>
+        <v>79.89276019576512</v>
       </c>
       <c r="J4" t="n">
-        <v>1.734793056183474</v>
+        <v>5.586110148184757</v>
       </c>
       <c r="K4" t="n">
-        <v>3312.868055639467</v>
+        <v>1850.592509979493</v>
       </c>
       <c r="L4" t="n">
-        <v>1499.197100802253</v>
+        <v>551.0379645283992</v>
       </c>
     </row>
     <row r="5">
@@ -616,38 +616,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OA_TestSuite_16_coords.json</t>
+          <t>RLC_TestSuite_16_coords.json</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.135775051361926</v>
+        <v>0.65755222307837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05685315009469963</v>
+        <v>0.03329008083799603</v>
       </c>
       <c r="E5" t="n">
-        <v>289.8167555144698</v>
+        <v>307.6824223778115</v>
       </c>
       <c r="F5" t="n">
-        <v>31.02773168068951</v>
+        <v>36.05022801550312</v>
       </c>
       <c r="G5" t="n">
-        <v>4.479110335435848</v>
+        <v>6.3701263573774</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5331830734713555</v>
+        <v>1.131667226335917</v>
       </c>
       <c r="I5" t="n">
-        <v>35.50433194710578</v>
+        <v>95.651036315366</v>
       </c>
       <c r="J5" t="n">
-        <v>1.842510227796508</v>
+        <v>8.881763762976199</v>
       </c>
       <c r="K5" t="n">
-        <v>3561.126012875628</v>
+        <v>2008.738676920388</v>
       </c>
       <c r="L5" t="n">
-        <v>1325.048137484238</v>
+        <v>455.0839777070725</v>
       </c>
     </row>
     <row r="6">
@@ -656,38 +656,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OA_TestSuite_10_coords_part1.json</t>
+          <t>RLC_TestSuite_13_coords.json</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.136845472794181</v>
+        <v>0.6693760267210556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07410746255199364</v>
+        <v>0.03843684480498205</v>
       </c>
       <c r="E6" t="n">
-        <v>271.7824295578718</v>
+        <v>304.238566197809</v>
       </c>
       <c r="F6" t="n">
-        <v>37.46005510157016</v>
+        <v>45.95581259151502</v>
       </c>
       <c r="G6" t="n">
-        <v>8.660740787989438</v>
+        <v>6.851210799073301</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7246774730668741</v>
+        <v>1.245929603609504</v>
       </c>
       <c r="I6" t="n">
-        <v>45.28096701235854</v>
+        <v>93.11036654287889</v>
       </c>
       <c r="J6" t="n">
-        <v>1.921199978816153</v>
+        <v>8.670055411828127</v>
       </c>
       <c r="K6" t="n">
-        <v>3201.460693338367</v>
+        <v>1964.245983783335</v>
       </c>
       <c r="L6" t="n">
-        <v>987.4926446846401</v>
+        <v>455.2759368087738</v>
       </c>
     </row>
     <row r="7">
@@ -696,38 +696,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OA_TestSuite_15_coords.json</t>
+          <t>RLC_TestSuite_3_coords.json</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.239439828260488</v>
+        <v>0.404240199470016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05020821132335958</v>
+        <v>0.04003296177616816</v>
       </c>
       <c r="E7" t="n">
-        <v>281.0353239111516</v>
+        <v>292.3484603462716</v>
       </c>
       <c r="F7" t="n">
-        <v>41.99511737409684</v>
+        <v>69.46119984859916</v>
       </c>
       <c r="G7" t="n">
-        <v>5.010432076280218</v>
+        <v>4.267263310495603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4145740655970842</v>
+        <v>1.130638279165224</v>
       </c>
       <c r="I7" t="n">
-        <v>41.54603061184249</v>
+        <v>61.8824364119553</v>
       </c>
       <c r="J7" t="n">
-        <v>2.01124395403219</v>
+        <v>10.81251953924441</v>
       </c>
       <c r="K7" t="n">
-        <v>3342.061758553501</v>
+        <v>1807.645961080228</v>
       </c>
       <c r="L7" t="n">
-        <v>1204.789286239637</v>
+        <v>411.0887461937414</v>
       </c>
     </row>
     <row r="8">
@@ -736,38 +736,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OA_TestSuite_5_coords.json</t>
+          <t>RLC_TestSuite_4_coords.json</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.61056370212985</v>
+        <v>0.3937393250207335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05736626606968449</v>
+        <v>0.02680134075726888</v>
       </c>
       <c r="E8" t="n">
-        <v>250.3229690705891</v>
+        <v>313.7857471599922</v>
       </c>
       <c r="F8" t="n">
-        <v>39.50387175142061</v>
+        <v>3.610689132743742</v>
       </c>
       <c r="G8" t="n">
-        <v>4.92282615905965</v>
+        <v>3.725824241955376</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3506489574267174</v>
+        <v>0.978435762548258</v>
       </c>
       <c r="I8" t="n">
-        <v>24.78853484951902</v>
+        <v>58.27079011521325</v>
       </c>
       <c r="J8" t="n">
-        <v>1.870690701522109</v>
+        <v>8.995885128995349</v>
       </c>
       <c r="K8" t="n">
-        <v>3167.832639316241</v>
+        <v>1816.690542899132</v>
       </c>
       <c r="L8" t="n">
-        <v>1288.914811237594</v>
+        <v>525.393213605718</v>
       </c>
     </row>
     <row r="9">
@@ -776,38 +776,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OA_TestSuite_9_coords_part2.json</t>
+          <t>RLC_TestSuite_14_coords.json</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.151566680354201</v>
+        <v>0.6575195364293721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05459555853509938</v>
+        <v>0.04000077297106158</v>
       </c>
       <c r="E9" t="n">
-        <v>281.067303267138</v>
+        <v>313.7857471599922</v>
       </c>
       <c r="F9" t="n">
-        <v>41.37280388919497</v>
+        <v>3.610689132743743</v>
       </c>
       <c r="G9" t="n">
-        <v>8.283553025645414</v>
+        <v>6.463571505040402</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6983737240273614</v>
+        <v>1.147839937829721</v>
       </c>
       <c r="I9" t="n">
-        <v>46.91071001151428</v>
+        <v>90.3457502593194</v>
       </c>
       <c r="J9" t="n">
-        <v>2.572241537849196</v>
+        <v>9.600147766892855</v>
       </c>
       <c r="K9" t="n">
-        <v>4135.758458047573</v>
+        <v>2002.585947699395</v>
       </c>
       <c r="L9" t="n">
-        <v>1183.578289633548</v>
+        <v>464.8120958379947</v>
       </c>
     </row>
     <row r="10">
@@ -816,38 +816,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OA_TestSuite_9_coords_part1.json</t>
+          <t>RLC_TestSuite_8_coords.json</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.177215174708538</v>
+        <v>0.6869305662193269</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06486564767213249</v>
+        <v>0.03884275883781806</v>
       </c>
       <c r="E10" t="n">
-        <v>272.6170620728629</v>
+        <v>293.3331241396158</v>
       </c>
       <c r="F10" t="n">
-        <v>40.70764680687332</v>
+        <v>66.85212650105903</v>
       </c>
       <c r="G10" t="n">
-        <v>7.99434794637774</v>
+        <v>7.709683208373604</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7426328476023409</v>
+        <v>0.9614151099865829</v>
       </c>
       <c r="I10" t="n">
-        <v>48.01939354201615</v>
+        <v>83.79952503427606</v>
       </c>
       <c r="J10" t="n">
-        <v>2.716538209553554</v>
+        <v>8.037653852467582</v>
       </c>
       <c r="K10" t="n">
-        <v>3429.07678069798</v>
+        <v>1942.961703727733</v>
       </c>
       <c r="L10" t="n">
-        <v>1115.60904474015</v>
+        <v>530.2377417271765</v>
       </c>
     </row>
     <row r="11">
@@ -856,38 +856,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OA_TestSuite_2_coords.json</t>
+          <t>RLC_TestSuite_11_coords.json</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6380356086539453</v>
+        <v>0.6661033843559852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02371110370339917</v>
+        <v>0.04595395665896158</v>
       </c>
       <c r="E11" t="n">
-        <v>210.2791535968564</v>
+        <v>300.828548226054</v>
       </c>
       <c r="F11" t="n">
-        <v>23.14864870608698</v>
+        <v>53.10417837563701</v>
       </c>
       <c r="G11" t="n">
-        <v>7.209553616234419</v>
+        <v>6.879017028017589</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4465525776283418</v>
+        <v>1.271965106170889</v>
       </c>
       <c r="I11" t="n">
-        <v>29.34002250494684</v>
+        <v>85.5901933192828</v>
       </c>
       <c r="J11" t="n">
-        <v>1.704183307167502</v>
+        <v>9.361992536648961</v>
       </c>
       <c r="K11" t="n">
-        <v>4318.395051424643</v>
+        <v>2061.936250000983</v>
       </c>
       <c r="L11" t="n">
-        <v>1304.563242896201</v>
+        <v>491.90475189757</v>
       </c>
     </row>
     <row r="12">
@@ -896,38 +896,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OA_TestSuite_12_coords.json</t>
+          <t>RLC_TestSuite_1_coords.json</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.214703796657538</v>
+        <v>0.4036031430896432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0670810804991768</v>
+        <v>0.03539408072544233</v>
       </c>
       <c r="E12" t="n">
-        <v>273.3631687667427</v>
+        <v>230.0150402972412</v>
       </c>
       <c r="F12" t="n">
-        <v>43.17552151201583</v>
+        <v>113.311771562717</v>
       </c>
       <c r="G12" t="n">
-        <v>6.034161239977834</v>
+        <v>4.273633587705902</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7297613917932797</v>
+        <v>1.042881361262353</v>
       </c>
       <c r="I12" t="n">
-        <v>45.31360235186173</v>
+        <v>54.80078055408472</v>
       </c>
       <c r="J12" t="n">
-        <v>3.184185216026908</v>
+        <v>10.36305049668642</v>
       </c>
       <c r="K12" t="n">
-        <v>3331.244510061097</v>
+        <v>1764.250802200371</v>
       </c>
       <c r="L12" t="n">
-        <v>1191.541522671846</v>
+        <v>516.3542763928889</v>
       </c>
     </row>
     <row r="13">
@@ -936,38 +936,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OA_TestSuite_7_coords.json</t>
+          <t>RLC_TestSuite_2_coords.json</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.106696226918621</v>
+        <v>0.4196212419310727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06851198489699213</v>
+        <v>0.02836546144492515</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0080109671397</v>
+        <v>295.3580128891678</v>
       </c>
       <c r="F13" t="n">
-        <v>45.60407699273991</v>
+        <v>61.7653005216096</v>
       </c>
       <c r="G13" t="n">
-        <v>10.26053188258259</v>
+        <v>4.756207413689229</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6868778637451832</v>
+        <v>0.8529711366137388</v>
       </c>
       <c r="I13" t="n">
-        <v>51.0642262538079</v>
+        <v>50.92195218270336</v>
       </c>
       <c r="J13" t="n">
-        <v>2.409419941865697</v>
+        <v>7.476336486966217</v>
       </c>
       <c r="K13" t="n">
-        <v>3247.769815440775</v>
+        <v>1830.340359177729</v>
       </c>
       <c r="L13" t="n">
-        <v>1133.624871321786</v>
+        <v>585.7373403722705</v>
       </c>
     </row>
     <row r="14">
@@ -976,38 +976,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OA_TestSuite_10_coords_part2.json</t>
+          <t>RLC_TestSuite_12_coords.json</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.120118194279128</v>
+        <v>0.6789749283276268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06677965061418931</v>
+        <v>0.04480296539380799</v>
       </c>
       <c r="E14" t="n">
-        <v>267.7506512568679</v>
+        <v>261.9219457639265</v>
       </c>
       <c r="F14" t="n">
-        <v>43.3084327134582</v>
+        <v>95.42176020829332</v>
       </c>
       <c r="G14" t="n">
-        <v>8.746064665995897</v>
+        <v>7.225371297754854</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6787818379215165</v>
+        <v>1.264274758782104</v>
       </c>
       <c r="I14" t="n">
-        <v>44.56570978224457</v>
+        <v>95.27001131341763</v>
       </c>
       <c r="J14" t="n">
-        <v>1.819114529757752</v>
+        <v>9.319955523342189</v>
       </c>
       <c r="K14" t="n">
-        <v>3150.652711786127</v>
+        <v>1959.740084060797</v>
       </c>
       <c r="L14" t="n">
-        <v>1025.108792557642</v>
+        <v>382.4327001994033</v>
       </c>
     </row>
     <row r="15">
@@ -1016,198 +1016,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OA_TestSuite_4_coords.json</t>
+          <t>RLC_TestSuite_7_coords.json</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6622247996004714</v>
+        <v>0.7059342377626692</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04965762059196792</v>
+        <v>0.04353920837381556</v>
       </c>
       <c r="E15" t="n">
-        <v>272.8310943229153</v>
+        <v>250.7931071417807</v>
       </c>
       <c r="F15" t="n">
-        <v>32.08177130744254</v>
+        <v>105.4667130685086</v>
       </c>
       <c r="G15" t="n">
-        <v>2.637011890574742</v>
+        <v>8.072713404424013</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3600763502763168</v>
+        <v>1.312295334816975</v>
       </c>
       <c r="I15" t="n">
-        <v>20.35004936781307</v>
+        <v>85.35090447348904</v>
       </c>
       <c r="J15" t="n">
-        <v>2.24782894192643</v>
+        <v>8.62723206072824</v>
       </c>
       <c r="K15" t="n">
-        <v>3550.600283081654</v>
+        <v>1954.892265060154</v>
       </c>
       <c r="L15" t="n">
-        <v>1281.483937157747</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>OA_TestSuite_11_coords.json</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.028353899843441</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.06058169528678517</v>
-      </c>
-      <c r="E16" t="n">
-        <v>259.7101907973079</v>
-      </c>
-      <c r="F16" t="n">
-        <v>24.09066011086777</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.861998932123255</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.7622157550694283</v>
-      </c>
-      <c r="I16" t="n">
-        <v>43.02003033317033</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.830777326256369</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3552.946907980041</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1257.334000954092</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OA_TestSuite_14_coords.json</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1.091368546764625</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.06109974247343027</v>
-      </c>
-      <c r="E17" t="n">
-        <v>282.801055980456</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30.04663911395317</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.57997788406021</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8878282935100529</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38.44143399901483</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.202041372512328</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3579.274185317656</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1236.698608758289</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OA_TestSuite_1_coords.json</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7030689815372991</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.05556572834997864</v>
-      </c>
-      <c r="E18" t="n">
-        <v>255.4132955499518</v>
-      </c>
-      <c r="F18" t="n">
-        <v>52.19168931968294</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.826956425239799</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5623424472298882</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.33662475817622</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.829520274786563</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3115.791354508197</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1198.482415783047</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OA_TestSuite_8_coords.json</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1.083279775739076</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.07077682328613721</v>
-      </c>
-      <c r="E19" t="n">
-        <v>226.2067848554942</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20.50229426310687</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11.2618366617842</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4588968297767325</v>
-      </c>
-      <c r="I19" t="n">
-        <v>50.69831833438487</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.609235082727354</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3597.932572452653</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1201.575219747586</v>
+        <v>485.6724998482531</v>
       </c>
     </row>
   </sheetData>
